--- a/exelData/lamanujan.xlsx
+++ b/exelData/lamanujan.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,13 +451,21 @@
           <t>계산 시간</t>
         </is>
       </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>더해진 항</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0004320144653320312</v>
+        <v>0.0003521442413330078</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +473,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007228851318359375</v>
+        <v>0.0004022121429443359</v>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -473,7 +484,10 @@
         <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0007410049438476562</v>
+        <v>0.0006248950958251953</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -481,7 +495,10 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001233816146850586</v>
+        <v>0.001055002212524414</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -489,7 +506,10 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>0.001718759536743164</v>
+        <v>0.001565217971801758</v>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +517,10 @@
         <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002196073532104492</v>
+        <v>0.002264022827148438</v>
+      </c>
+      <c r="C7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +528,10 @@
         <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>0.003127098083496094</v>
+        <v>0.002753973007202148</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -513,7 +539,10 @@
         <v>80</v>
       </c>
       <c r="B9" t="n">
-        <v>0.003654003143310547</v>
+        <v>0.00318598747253418</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -521,7 +550,10 @@
         <v>90</v>
       </c>
       <c r="B10" t="n">
-        <v>0.004321813583374023</v>
+        <v>0.003922939300537109</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
@@ -529,7 +561,10 @@
         <v>100</v>
       </c>
       <c r="B11" t="n">
-        <v>0.005125045776367188</v>
+        <v>0.004708051681518555</v>
+      </c>
+      <c r="C11" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="12">
@@ -537,7 +572,10 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>0.006104946136474609</v>
+        <v>0.005681753158569336</v>
+      </c>
+      <c r="C12" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="13">
@@ -545,7 +583,10 @@
         <v>120</v>
       </c>
       <c r="B13" t="n">
-        <v>0.006649971008300781</v>
+        <v>0.005981922149658203</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -553,7 +594,10 @@
         <v>130</v>
       </c>
       <c r="B14" t="n">
-        <v>0.007801055908203125</v>
+        <v>0.007539987564086914</v>
+      </c>
+      <c r="C14" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -561,7 +605,10 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01076197624206543</v>
+        <v>0.008558988571166992</v>
+      </c>
+      <c r="C15" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="16">
@@ -569,7 +616,10 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01098203659057617</v>
+        <v>0.01008796691894531</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +627,10 @@
         <v>160</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01194405555725098</v>
+        <v>0.01055908203125</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -585,7 +638,10 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01823997497558594</v>
+        <v>0.01217389106750488</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -593,7 +649,10 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0189969539642334</v>
+        <v>0.01389098167419434</v>
+      </c>
+      <c r="C19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -601,7 +660,10 @@
         <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02149701118469238</v>
+        <v>0.01540207862854004</v>
+      </c>
+      <c r="C20" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -609,7 +671,10 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>0.03185296058654785</v>
+        <v>0.01650571823120117</v>
+      </c>
+      <c r="C21" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -617,7 +682,10 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02224493026733398</v>
+        <v>0.01878023147583008</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="23">
@@ -625,7 +693,10 @@
         <v>220</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0258018970489502</v>
+        <v>0.02003622055053711</v>
+      </c>
+      <c r="C23" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="24">
@@ -633,7 +704,10 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02279782295227051</v>
+        <v>0.02193021774291992</v>
+      </c>
+      <c r="C24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25">
@@ -641,7 +715,10 @@
         <v>240</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02714133262634277</v>
+        <v>0.02412796020507812</v>
+      </c>
+      <c r="C25" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="26">
@@ -649,7 +726,10 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02640199661254883</v>
+        <v>0.02562880516052246</v>
+      </c>
+      <c r="C26" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="27">
@@ -657,7 +737,10 @@
         <v>260</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0293881893157959</v>
+        <v>0.02712702751159668</v>
+      </c>
+      <c r="C27" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="28">
@@ -665,7 +748,10 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>0.04530620574951172</v>
+        <v>0.03047299385070801</v>
+      </c>
+      <c r="C28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -673,7 +759,10 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>0.04888606071472168</v>
+        <v>0.03217387199401855</v>
+      </c>
+      <c r="C29" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="30">
@@ -681,7 +770,10 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>0.04186487197875977</v>
+        <v>0.03573822975158691</v>
+      </c>
+      <c r="C30" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -689,7 +781,10 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0448768138885498</v>
+        <v>0.03715014457702637</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="32">
@@ -697,7 +792,10 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>0.04262804985046387</v>
+        <v>0.03893208503723145</v>
+      </c>
+      <c r="C32" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="33">
@@ -705,7 +803,10 @@
         <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>0.04497599601745605</v>
+        <v>0.04045677185058594</v>
+      </c>
+      <c r="C33" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="34">
@@ -713,7 +814,10 @@
         <v>330</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05466508865356445</v>
+        <v>0.04503297805786133</v>
+      </c>
+      <c r="C34" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="35">
@@ -721,7 +825,10 @@
         <v>340</v>
       </c>
       <c r="B35" t="n">
-        <v>0.06273913383483887</v>
+        <v>0.04636693000793457</v>
+      </c>
+      <c r="C35" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="36">
@@ -729,7 +836,10 @@
         <v>350</v>
       </c>
       <c r="B36" t="n">
-        <v>0.05558609962463379</v>
+        <v>0.04848718643188477</v>
+      </c>
+      <c r="C36" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="37">
@@ -737,7 +847,10 @@
         <v>360</v>
       </c>
       <c r="B37" t="n">
-        <v>0.05275177955627441</v>
+        <v>0.05109310150146484</v>
+      </c>
+      <c r="C37" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="38">
@@ -745,7 +858,10 @@
         <v>370</v>
       </c>
       <c r="B38" t="n">
-        <v>0.06518411636352539</v>
+        <v>0.05548000335693359</v>
+      </c>
+      <c r="C38" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="39">
@@ -753,7 +869,10 @@
         <v>380</v>
       </c>
       <c r="B39" t="n">
-        <v>0.0865471363067627</v>
+        <v>0.05787086486816406</v>
+      </c>
+      <c r="C39" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="40">
@@ -761,7 +880,10 @@
         <v>390</v>
       </c>
       <c r="B40" t="n">
-        <v>0.06614184379577637</v>
+        <v>0.06046199798583984</v>
+      </c>
+      <c r="C40" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="41">
@@ -769,7 +891,10 @@
         <v>400</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06668591499328613</v>
+        <v>0.06901884078979492</v>
+      </c>
+      <c r="C41" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="42">
@@ -777,7 +902,10 @@
         <v>410</v>
       </c>
       <c r="B42" t="n">
-        <v>0.06969809532165527</v>
+        <v>0.07466816902160645</v>
+      </c>
+      <c r="C42" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="43">
@@ -785,7 +913,10 @@
         <v>420</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0727689266204834</v>
+        <v>0.07593107223510742</v>
+      </c>
+      <c r="C43" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="44">
@@ -793,7 +924,10 @@
         <v>430</v>
       </c>
       <c r="B44" t="n">
-        <v>0.07469797134399414</v>
+        <v>0.08644795417785645</v>
+      </c>
+      <c r="C44" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="45">
@@ -801,7 +935,10 @@
         <v>440</v>
       </c>
       <c r="B45" t="n">
-        <v>0.08120489120483398</v>
+        <v>0.09289002418518066</v>
+      </c>
+      <c r="C45" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="46">
@@ -809,7 +946,10 @@
         <v>450</v>
       </c>
       <c r="B46" t="n">
-        <v>0.08594202995300293</v>
+        <v>0.09432697296142578</v>
+      </c>
+      <c r="C46" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="47">
@@ -817,7 +957,10 @@
         <v>460</v>
       </c>
       <c r="B47" t="n">
-        <v>0.09167790412902832</v>
+        <v>0.1139509677886963</v>
+      </c>
+      <c r="C47" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="48">
@@ -825,7 +968,10 @@
         <v>470</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0913240909576416</v>
+        <v>0.114915132522583</v>
+      </c>
+      <c r="C48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49">
@@ -833,7 +979,10 @@
         <v>480</v>
       </c>
       <c r="B49" t="n">
-        <v>0.09774684906005859</v>
+        <v>0.1480193138122559</v>
+      </c>
+      <c r="C49" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="50">
@@ -841,7 +990,10 @@
         <v>490</v>
       </c>
       <c r="B50" t="n">
-        <v>0.1029279232025146</v>
+        <v>0.1105711460113525</v>
+      </c>
+      <c r="C50" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="51">
@@ -849,7 +1001,10 @@
         <v>500</v>
       </c>
       <c r="B51" t="n">
-        <v>0.1082863807678223</v>
+        <v>0.1066648960113525</v>
+      </c>
+      <c r="C51" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="52">
@@ -857,7 +1012,10 @@
         <v>510</v>
       </c>
       <c r="B52" t="n">
-        <v>0.1094238758087158</v>
+        <v>0.1109681129455566</v>
+      </c>
+      <c r="C52" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="53">
@@ -865,7 +1023,10 @@
         <v>520</v>
       </c>
       <c r="B53" t="n">
-        <v>0.1161730289459229</v>
+        <v>0.1192278861999512</v>
+      </c>
+      <c r="C53" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="54">
@@ -873,7 +1034,10 @@
         <v>530</v>
       </c>
       <c r="B54" t="n">
-        <v>0.1220290660858154</v>
+        <v>0.1266839504241943</v>
+      </c>
+      <c r="C54" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="55">
@@ -881,7 +1045,10 @@
         <v>540</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1256961822509766</v>
+        <v>0.1295778751373291</v>
+      </c>
+      <c r="C55" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="56">
@@ -889,7 +1056,10 @@
         <v>550</v>
       </c>
       <c r="B56" t="n">
-        <v>0.1321628093719482</v>
+        <v>0.1329019069671631</v>
+      </c>
+      <c r="C56" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="57">
@@ -897,7 +1067,10 @@
         <v>560</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1376678943634033</v>
+        <v>0.1401009559631348</v>
+      </c>
+      <c r="C57" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="58">
@@ -905,7 +1078,10 @@
         <v>570</v>
       </c>
       <c r="B58" t="n">
-        <v>0.1453001499176025</v>
+        <v>0.1401150226593018</v>
+      </c>
+      <c r="C58" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="59">
@@ -913,7 +1089,10 @@
         <v>580</v>
       </c>
       <c r="B59" t="n">
-        <v>0.1495637893676758</v>
+        <v>0.1448090076446533</v>
+      </c>
+      <c r="C59" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="60">
@@ -921,7 +1100,10 @@
         <v>590</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1527926921844482</v>
+        <v>0.1534631252288818</v>
+      </c>
+      <c r="C60" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="61">
@@ -929,7 +1111,10 @@
         <v>600</v>
       </c>
       <c r="B61" t="n">
-        <v>0.1612789630889893</v>
+        <v>0.1727378368377686</v>
+      </c>
+      <c r="C61" t="n">
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -937,7 +1122,10 @@
         <v>610</v>
       </c>
       <c r="B62" t="n">
-        <v>0.1671438217163086</v>
+        <v>0.1719391345977783</v>
+      </c>
+      <c r="C62" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="63">
@@ -945,7 +1133,10 @@
         <v>620</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1731588840484619</v>
+        <v>0.1786761283874512</v>
+      </c>
+      <c r="C63" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="64">
@@ -953,7 +1144,10 @@
         <v>630</v>
       </c>
       <c r="B64" t="n">
-        <v>0.1788032054901123</v>
+        <v>0.1868288516998291</v>
+      </c>
+      <c r="C64" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="65">
@@ -961,7 +1155,10 @@
         <v>640</v>
       </c>
       <c r="B65" t="n">
-        <v>0.1887168884277344</v>
+        <v>0.1893727779388428</v>
+      </c>
+      <c r="C65" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="66">
@@ -969,7 +1166,10 @@
         <v>650</v>
       </c>
       <c r="B66" t="n">
-        <v>0.193464994430542</v>
+        <v>0.1933329105377197</v>
+      </c>
+      <c r="C66" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="67">
@@ -977,7 +1177,10 @@
         <v>660</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2009439468383789</v>
+        <v>0.2070138454437256</v>
+      </c>
+      <c r="C67" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="68">
@@ -985,7 +1188,10 @@
         <v>670</v>
       </c>
       <c r="B68" t="n">
-        <v>0.2077791690826416</v>
+        <v>0.2126939296722412</v>
+      </c>
+      <c r="C68" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="69">
@@ -993,7 +1199,10 @@
         <v>680</v>
       </c>
       <c r="B69" t="n">
-        <v>0.2167518138885498</v>
+        <v>0.2240140438079834</v>
+      </c>
+      <c r="C69" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="70">
@@ -1001,7 +1210,10 @@
         <v>690</v>
       </c>
       <c r="B70" t="n">
-        <v>0.2272722721099854</v>
+        <v>0.2261791229248047</v>
+      </c>
+      <c r="C70" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="71">
@@ -1009,7 +1221,10 @@
         <v>700</v>
       </c>
       <c r="B71" t="n">
-        <v>0.2299456596374512</v>
+        <v>0.2383370399475098</v>
+      </c>
+      <c r="C71" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="72">
@@ -1017,7 +1232,10 @@
         <v>710</v>
       </c>
       <c r="B72" t="n">
-        <v>0.238457202911377</v>
+        <v>0.2448451519012451</v>
+      </c>
+      <c r="C72" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="73">
@@ -1025,7 +1243,10 @@
         <v>720</v>
       </c>
       <c r="B73" t="n">
-        <v>0.2494862079620361</v>
+        <v>0.2573549747467041</v>
+      </c>
+      <c r="C73" t="n">
+        <v>91</v>
       </c>
     </row>
     <row r="74">
@@ -1033,7 +1254,10 @@
         <v>730</v>
       </c>
       <c r="B74" t="n">
-        <v>0.2864677906036377</v>
+        <v>0.2651100158691406</v>
+      </c>
+      <c r="C74" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="75">
@@ -1041,7 +1265,10 @@
         <v>740</v>
       </c>
       <c r="B75" t="n">
-        <v>0.2634909152984619</v>
+        <v>0.2736830711364746</v>
+      </c>
+      <c r="C75" t="n">
+        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -1049,7 +1276,10 @@
         <v>750</v>
       </c>
       <c r="B76" t="n">
-        <v>0.2723629474639893</v>
+        <v>0.2815852165222168</v>
+      </c>
+      <c r="C76" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="77">
@@ -1057,7 +1287,10 @@
         <v>760</v>
       </c>
       <c r="B77" t="n">
-        <v>0.2831218242645264</v>
+        <v>0.2924962043762207</v>
+      </c>
+      <c r="C77" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="78">
@@ -1065,7 +1298,10 @@
         <v>770</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2907390594482422</v>
+        <v>0.3002910614013672</v>
+      </c>
+      <c r="C78" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="79">
@@ -1073,7 +1309,10 @@
         <v>780</v>
       </c>
       <c r="B79" t="n">
-        <v>0.3005750179290771</v>
+        <v>0.3090441226959229</v>
+      </c>
+      <c r="C79" t="n">
+        <v>98</v>
       </c>
     </row>
     <row r="80">
@@ -1081,7 +1320,10 @@
         <v>790</v>
       </c>
       <c r="B80" t="n">
-        <v>0.306804895401001</v>
+        <v>0.3202610015869141</v>
+      </c>
+      <c r="C80" t="n">
+        <v>99</v>
       </c>
     </row>
     <row r="81">
@@ -1089,7 +1331,10 @@
         <v>800</v>
       </c>
       <c r="B81" t="n">
-        <v>0.3223638534545898</v>
+        <v>0.3638179302215576</v>
+      </c>
+      <c r="C81" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="82">
@@ -1097,7 +1342,10 @@
         <v>810</v>
       </c>
       <c r="B82" t="n">
-        <v>0.3346438407897949</v>
+        <v>0.335759162902832</v>
+      </c>
+      <c r="C82" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="83">
@@ -1105,7 +1353,10 @@
         <v>820</v>
       </c>
       <c r="B83" t="n">
-        <v>0.3388710021972656</v>
+        <v>0.3569290637969971</v>
+      </c>
+      <c r="C83" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="84">
@@ -1113,7 +1364,10 @@
         <v>830</v>
       </c>
       <c r="B84" t="n">
-        <v>0.3506989479064941</v>
+        <v>0.3547670841217041</v>
+      </c>
+      <c r="C84" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="85">
@@ -1121,7 +1375,10 @@
         <v>840</v>
       </c>
       <c r="B85" t="n">
-        <v>0.3654897212982178</v>
+        <v>0.3690700531005859</v>
+      </c>
+      <c r="C85" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="86">
@@ -1129,7 +1386,10 @@
         <v>850</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3797101974487305</v>
+        <v>0.3869731426239014</v>
+      </c>
+      <c r="C86" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="87">
@@ -1137,7 +1397,10 @@
         <v>860</v>
       </c>
       <c r="B87" t="n">
-        <v>0.3860940933227539</v>
+        <v>0.3931717872619629</v>
+      </c>
+      <c r="C87" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="88">
@@ -1145,7 +1408,10 @@
         <v>870</v>
       </c>
       <c r="B88" t="n">
-        <v>0.3931138515472412</v>
+        <v>0.3970630168914795</v>
+      </c>
+      <c r="C88" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="89">
@@ -1153,7 +1419,10 @@
         <v>880</v>
       </c>
       <c r="B89" t="n">
-        <v>0.4136300086975098</v>
+        <v>0.4317948818206787</v>
+      </c>
+      <c r="C89" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="90">
@@ -1161,7 +1430,10 @@
         <v>890</v>
       </c>
       <c r="B90" t="n">
-        <v>0.4340200424194336</v>
+        <v>0.4370596408843994</v>
+      </c>
+      <c r="C90" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="91">
@@ -1169,7 +1441,10 @@
         <v>900</v>
       </c>
       <c r="B91" t="n">
-        <v>0.4285149574279785</v>
+        <v>0.431710958480835</v>
+      </c>
+      <c r="C91" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="92">
@@ -1177,7 +1452,10 @@
         <v>910</v>
       </c>
       <c r="B92" t="n">
-        <v>0.4408624172210693</v>
+        <v>0.4426279067993164</v>
+      </c>
+      <c r="C92" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="93">
@@ -1185,7 +1463,10 @@
         <v>920</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4596529006958008</v>
+        <v>0.4805569648742676</v>
+      </c>
+      <c r="C93" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="94">
@@ -1193,7 +1474,10 @@
         <v>930</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4671969413757324</v>
+        <v>0.4852359294891357</v>
+      </c>
+      <c r="C94" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="95">
@@ -1201,7 +1485,10 @@
         <v>940</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4819397926330566</v>
+        <v>0.5344929695129395</v>
+      </c>
+      <c r="C95" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="96">
@@ -1209,7 +1496,10 @@
         <v>950</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4943690299987793</v>
+        <v>0.5004901885986328</v>
+      </c>
+      <c r="C96" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="97">
@@ -1217,7 +1507,10 @@
         <v>960</v>
       </c>
       <c r="B97" t="n">
-        <v>0.516171932220459</v>
+        <v>0.5180962085723877</v>
+      </c>
+      <c r="C97" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="98">
@@ -1225,7 +1518,10 @@
         <v>970</v>
       </c>
       <c r="B98" t="n">
-        <v>0.529667854309082</v>
+        <v>0.5429351329803467</v>
+      </c>
+      <c r="C98" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="99">
@@ -1233,7 +1529,10 @@
         <v>980</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5734810829162598</v>
+        <v>0.5446541309356689</v>
+      </c>
+      <c r="C99" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="100">
@@ -1241,7 +1540,10 @@
         <v>990</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5505008697509766</v>
+        <v>0.5462520122528076</v>
+      </c>
+      <c r="C100" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="101">
@@ -1249,7 +1551,10 @@
         <v>1000</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5761728286743164</v>
+        <v>0.6092631816864014</v>
+      </c>
+      <c r="C101" t="n">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
